--- a/com.automationpractice/src/test/resources/test_data.xlsx
+++ b/com.automationpractice/src/test/resources/test_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadeh\IdeaProjects\SeleniumBootcamp\com.automationpractice\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B06761-E823-464A-91CD-1ED4217DA8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44B607D-F59D-44B5-A27B-9C2DC5D93267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0B23C55D-B26A-48CC-8681-BC864616B3F7}"/>
   </bookViews>
@@ -36,19 +36,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>erazchow@gmail.com</t>
+  </si>
+  <si>
+    <t>Eraz1234</t>
+  </si>
+  <si>
+    <t>Your order on My Store is complete.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,14 +88,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -391,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AACE68A-0016-4BF7-BCFB-8E30B5D9548C}">
-  <dimension ref="A2"/>
+  <dimension ref="A2:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,12 +422,24 @@
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{C31B14C0-BB73-4443-831E-4595BECF5B1B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/com.automationpractice/src/test/resources/test_data.xlsx
+++ b/com.automationpractice/src/test/resources/test_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadeh\IdeaProjects\SeleniumBootcamp\com.automationpractice\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44B607D-F59D-44B5-A27B-9C2DC5D93267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557AECDC-4B78-4DAE-A61A-1717AF314B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0B23C55D-B26A-48CC-8681-BC864616B3F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0B23C55D-B26A-48CC-8681-BC864616B3F7}"/>
   </bookViews>
   <sheets>
     <sheet name="TestFeaturedProductsDP" sheetId="1" r:id="rId1"/>
+    <sheet name="TestSendingMessageDP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>0</t>
   </si>
@@ -48,6 +49,18 @@
   </si>
   <si>
     <t>Your order on My Store is complete.</t>
+  </si>
+  <si>
+    <t>Customer service</t>
+  </si>
+  <si>
+    <t>My order never came</t>
+  </si>
+  <si>
+    <t>C:/Users/jadeh/Pictures/SteamPFP's/eraz_fish.jpg</t>
+  </si>
+  <si>
+    <t>Your message has been successfully sent to our team.</t>
   </si>
 </sst>
 </file>
@@ -413,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AACE68A-0016-4BF7-BCFB-8E30B5D9548C}">
   <dimension ref="A2:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,4 +455,42 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BC3961-A681-41B0-9AD8-07A8ADF16E8F}">
+  <dimension ref="A2:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7F18C8B0-6B87-4F27-82C4-610A180E55E2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.automationpractice/src/test/resources/test_data.xlsx
+++ b/com.automationpractice/src/test/resources/test_data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadeh\IdeaProjects\SeleniumBootcamp\com.automationpractice\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557AECDC-4B78-4DAE-A61A-1717AF314B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1427C3BA-C474-4E6A-8A30-E4D5662CE3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{0B23C55D-B26A-48CC-8681-BC864616B3F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{0B23C55D-B26A-48CC-8681-BC864616B3F7}"/>
   </bookViews>
   <sheets>
     <sheet name="TestFeaturedProductsDP" sheetId="1" r:id="rId1"/>
     <sheet name="TestSendingMessageDP" sheetId="2" r:id="rId2"/>
+    <sheet name="TestResetPasswordDP" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>0</t>
   </si>
@@ -61,6 +62,9 @@
   </si>
   <si>
     <t>Your message has been successfully sent to our team.</t>
+  </si>
+  <si>
+    <t>A confirmation email has been sent to your address: erazchow@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -461,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BC3961-A681-41B0-9AD8-07A8ADF16E8F}">
   <dimension ref="A2:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -493,4 +497,33 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D153B2-6439-40A7-902A-FCAC86AD8CA6}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{3C2844B9-418F-4256-892F-1CDC727CC6DE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.automationpractice/src/test/resources/test_data.xlsx
+++ b/com.automationpractice/src/test/resources/test_data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadeh\IdeaProjects\SeleniumBootcamp\com.automationpractice\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1427C3BA-C474-4E6A-8A30-E4D5662CE3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63751042-DC53-48F1-BE75-6A7CD312A09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{0B23C55D-B26A-48CC-8681-BC864616B3F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{0B23C55D-B26A-48CC-8681-BC864616B3F7}"/>
   </bookViews>
   <sheets>
     <sheet name="TestFeaturedProductsDP" sheetId="1" r:id="rId1"/>
     <sheet name="TestSendingMessageDP" sheetId="2" r:id="rId2"/>
     <sheet name="TestResetPasswordDP" sheetId="3" r:id="rId3"/>
+    <sheet name="TestViewOrderDP" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>0</t>
   </si>
@@ -65,13 +66,19 @@
   </si>
   <si>
     <t>A confirmation email has been sent to your address: erazchow@gmail.com</t>
+  </si>
+  <si>
+    <t>C:\\Users\\jadeh\\Downloads</t>
+  </si>
+  <si>
+    <t>IN256001.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +90,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,10 +122,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -431,7 +447,7 @@
   <dimension ref="A2:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,7 +482,7 @@
   <dimension ref="A2:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D153B2-6439-40A7-902A-FCAC86AD8CA6}">
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,4 +542,40 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CF6DD0-187D-4DCF-AB4E-3DA96BA45780}">
+  <dimension ref="A2:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4106D715-0341-4803-8914-98C62438934F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/com.automationpractice/src/test/resources/test_data.xlsx
+++ b/com.automationpractice/src/test/resources/test_data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadeh\IdeaProjects\SeleniumBootcamp\com.automationpractice\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63751042-DC53-48F1-BE75-6A7CD312A09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04085DB4-28CA-445C-9257-77F735888516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{0B23C55D-B26A-48CC-8681-BC864616B3F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{0B23C55D-B26A-48CC-8681-BC864616B3F7}"/>
   </bookViews>
   <sheets>
     <sheet name="TestFeaturedProductsDP" sheetId="1" r:id="rId1"/>
     <sheet name="TestSendingMessageDP" sheetId="2" r:id="rId2"/>
     <sheet name="TestResetPasswordDP" sheetId="3" r:id="rId3"/>
     <sheet name="TestViewOrderDP" sheetId="4" r:id="rId4"/>
+    <sheet name="TestSignInDP" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>0</t>
   </si>
@@ -72,6 +73,9 @@
   </si>
   <si>
     <t>IN256001.pdf</t>
+  </si>
+  <si>
+    <t>Welcome to your account. Here you can manage all of your personal information and orders.</t>
   </si>
 </sst>
 </file>
@@ -548,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CF6DD0-187D-4DCF-AB4E-3DA96BA45780}">
   <dimension ref="A2:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -578,4 +582,36 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B196B04D-851E-471D-9A75-BA88D31D467B}">
+  <dimension ref="A2:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{27D7BCAF-EEC1-4408-973F-4B75BC7A514E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.automationpractice/src/test/resources/test_data.xlsx
+++ b/com.automationpractice/src/test/resources/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadeh\IdeaProjects\SeleniumBootcamp\com.automationpractice\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04085DB4-28CA-445C-9257-77F735888516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335E17E6-3205-4D5F-AC67-2D3C711DEDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{0B23C55D-B26A-48CC-8681-BC864616B3F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="5" xr2:uid="{0B23C55D-B26A-48CC-8681-BC864616B3F7}"/>
   </bookViews>
   <sheets>
     <sheet name="TestFeaturedProductsDP" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="TestResetPasswordDP" sheetId="3" r:id="rId3"/>
     <sheet name="TestViewOrderDP" sheetId="4" r:id="rId4"/>
     <sheet name="TestSignInDP" sheetId="5" r:id="rId5"/>
+    <sheet name="TestSearchAndPurchaseDP" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>0</t>
   </si>
@@ -76,6 +77,15 @@
   </si>
   <si>
     <t>Welcome to your account. Here you can manage all of your personal information and orders.</t>
+  </si>
+  <si>
+    <t>dress</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -450,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AACE68A-0016-4BF7-BCFB-8E30B5D9548C}">
   <dimension ref="A2:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B196B04D-851E-471D-9A75-BA88D31D467B}">
   <dimension ref="A2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -614,4 +624,48 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED205840-2FB8-4587-BB54-E17E23EBE96C}">
+  <dimension ref="A2:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{FF01BEEF-8BA5-46BC-9B1F-EE60B940CC3B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.automationpractice/src/test/resources/test_data.xlsx
+++ b/com.automationpractice/src/test/resources/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadeh\IdeaProjects\SeleniumBootcamp\com.automationpractice\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335E17E6-3205-4D5F-AC67-2D3C711DEDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84113D25-B1D7-4CDF-AC6F-EAA36E467AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="5" xr2:uid="{0B23C55D-B26A-48CC-8681-BC864616B3F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="833" activeTab="6" xr2:uid="{0B23C55D-B26A-48CC-8681-BC864616B3F7}"/>
   </bookViews>
   <sheets>
     <sheet name="TestFeaturedProductsDP" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="TestViewOrderDP" sheetId="4" r:id="rId4"/>
     <sheet name="TestSignInDP" sheetId="5" r:id="rId5"/>
     <sheet name="TestSearchAndPurchaseDP" sheetId="6" r:id="rId6"/>
+    <sheet name="TestRemoveItems" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>0</t>
   </si>
@@ -460,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AACE68A-0016-4BF7-BCFB-8E30B5D9548C}">
   <dimension ref="A2:D2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
@@ -630,7 +631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED205840-2FB8-4587-BB54-E17E23EBE96C}">
   <dimension ref="A2:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -668,4 +669,30 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49329294-2C8B-4D8A-A447-211F6563521A}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.automationpractice/src/test/resources/test_data.xlsx
+++ b/com.automationpractice/src/test/resources/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadeh\IdeaProjects\SeleniumBootcamp\com.automationpractice\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84113D25-B1D7-4CDF-AC6F-EAA36E467AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE38A64-958D-4D8D-B0F7-125B0B612BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="833" activeTab="6" xr2:uid="{0B23C55D-B26A-48CC-8681-BC864616B3F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="833" firstSheet="1" activeTab="7" xr2:uid="{0B23C55D-B26A-48CC-8681-BC864616B3F7}"/>
   </bookViews>
   <sheets>
     <sheet name="TestFeaturedProductsDP" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="TestSignInDP" sheetId="5" r:id="rId5"/>
     <sheet name="TestSearchAndPurchaseDP" sheetId="6" r:id="rId6"/>
     <sheet name="TestRemoveItems" sheetId="7" r:id="rId7"/>
+    <sheet name="TestInvalidSignInDP" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>0</t>
   </si>
@@ -87,6 +88,12 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>There is 1 error</t>
   </si>
 </sst>
 </file>
@@ -137,13 +144,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -600,7 +608,7 @@
   <dimension ref="A2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49329294-2C8B-4D8A-A447-211F6563521A}">
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -695,4 +703,34 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607B3603-75B2-4FD3-8070-535421E902A9}">
+  <dimension ref="A2:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B298AA57-8D89-4B7D-9F15-C4F4E971B70F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/com.automationpractice/src/test/resources/test_data.xlsx
+++ b/com.automationpractice/src/test/resources/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadeh\IdeaProjects\SeleniumBootcamp\com.automationpractice\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE38A64-958D-4D8D-B0F7-125B0B612BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC27153-F47F-4FD1-A494-86B19BDCEA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="833" firstSheet="1" activeTab="7" xr2:uid="{0B23C55D-B26A-48CC-8681-BC864616B3F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="833" firstSheet="1" activeTab="8" xr2:uid="{0B23C55D-B26A-48CC-8681-BC864616B3F7}"/>
   </bookViews>
   <sheets>
     <sheet name="TestFeaturedProductsDP" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="TestSearchAndPurchaseDP" sheetId="6" r:id="rId6"/>
     <sheet name="TestRemoveItems" sheetId="7" r:id="rId7"/>
     <sheet name="TestInvalidSignInDP" sheetId="8" r:id="rId8"/>
+    <sheet name="TestWritingReviewDP" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>0</t>
   </si>
@@ -94,6 +95,15 @@
   </si>
   <si>
     <t>There is 1 error</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>My Review</t>
+  </si>
+  <si>
+    <t>This product stinks</t>
   </si>
 </sst>
 </file>
@@ -709,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607B3603-75B2-4FD3-8070-535421E902A9}">
   <dimension ref="A2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -733,4 +743,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C6F665-F2CB-4E70-B9C7-E5F75FAF9A12}">
+  <dimension ref="A2:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{52C5E09E-B8D0-4742-A468-3EAF4417D13C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.automationpractice/src/test/resources/test_data.xlsx
+++ b/com.automationpractice/src/test/resources/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadeh\IdeaProjects\SeleniumBootcamp\com.automationpractice\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC27153-F47F-4FD1-A494-86B19BDCEA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C80B9EC-F21E-4D50-B477-7B9FEFDC859A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="833" firstSheet="1" activeTab="8" xr2:uid="{0B23C55D-B26A-48CC-8681-BC864616B3F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="833" activeTab="1" xr2:uid="{0B23C55D-B26A-48CC-8681-BC864616B3F7}"/>
   </bookViews>
   <sheets>
     <sheet name="TestFeaturedProductsDP" sheetId="1" r:id="rId1"/>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BC3961-A681-41B0-9AD8-07A8ADF16E8F}">
   <dimension ref="A2:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C6F665-F2CB-4E70-B9C7-E5F75FAF9A12}">
   <dimension ref="A2:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>

--- a/com.automationpractice/src/test/resources/test_data.xlsx
+++ b/com.automationpractice/src/test/resources/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadeh\IdeaProjects\SeleniumBootcamp\com.automationpractice\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C80B9EC-F21E-4D50-B477-7B9FEFDC859A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5CA4FB-082A-4C3B-A35B-99FFFB55C1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="833" activeTab="1" xr2:uid="{0B23C55D-B26A-48CC-8681-BC864616B3F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="833" xr2:uid="{0B23C55D-B26A-48CC-8681-BC864616B3F7}"/>
   </bookViews>
   <sheets>
     <sheet name="TestFeaturedProductsDP" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>0</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>This product stinks</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -477,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AACE68A-0016-4BF7-BCFB-8E30B5D9548C}">
-  <dimension ref="A2:D2"/>
+  <dimension ref="A2:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,9 +505,39 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{C31B14C0-BB73-4443-831E-4595BECF5B1B}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{9295FC0A-7251-49E7-8AB0-E766819D8A70}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{20D75311-F85A-4FFC-B73D-C56181B101D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -514,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BC3961-A681-41B0-9AD8-07A8ADF16E8F}">
   <dimension ref="A2:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/com.automationpractice/src/test/resources/test_data.xlsx
+++ b/com.automationpractice/src/test/resources/test_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadeh\IdeaProjects\SeleniumBootcamp\com.automationpractice\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5CA4FB-082A-4C3B-A35B-99FFFB55C1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D191727D-B909-431A-99C3-C1B94D5C6078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="833" xr2:uid="{0B23C55D-B26A-48CC-8681-BC864616B3F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="833" activeTab="2" xr2:uid="{0B23C55D-B26A-48CC-8681-BC864616B3F7}"/>
   </bookViews>
   <sheets>
     <sheet name="TestFeaturedProductsDP" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AACE68A-0016-4BF7-BCFB-8E30B5D9548C}">
   <dimension ref="A2:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D153B2-6439-40A7-902A-FCAC86AD8CA6}">
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
